--- a/[26卒古川]TowerRising.xlsx
+++ b/[26卒古川]TowerRising.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Planner\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955D8BAC-E302-4AAE-BEA5-5B7ACB829A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="概要" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,176 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>TowerRising</t>
+  </si>
+  <si>
+    <t>タイトル:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(※上記は版権画像です)</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム概要</t>
+    <rPh sb="3" eb="5">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無限に続く塔があった。</t>
+    <rPh sb="0" eb="2">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無限に続く塔には、無限の資源があった。</t>
+    <rPh sb="0" eb="2">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッチテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わりのない報酬は、終わりのない欲望を生み。</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨクボウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塔は今日も、強欲な者たちを飲み込んでいくーー。</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウヨク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひたすら塔を登っていくゲームです。</t>
+    <rPh sb="4" eb="5">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塔の内側の側面を登っていきます。</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソクメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターが行く手を阻み、宝箱のアイテムなどでお金を稼ぎ、</t>
+    <rPh sb="6" eb="7">
+      <t>ユ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれだけ登れるかを試すゲームです。</t>
+    <rPh sb="4" eb="5">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +201,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +244,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +263,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12070</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35737F9E-D49A-96E3-C5D2-5893CC0462EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695629" y="716516"/>
+          <a:ext cx="4425459" cy="3301051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +582,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:3" s="1" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="1" customFormat="1">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="1" customFormat="1">
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>